--- a/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24300</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15214</v>
+        <v>15120</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37058</v>
+        <v>35710</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03516726855031114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0220178016708173</v>
+        <v>0.02188251348302137</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05363131712247082</v>
+        <v>0.05168142521558106</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -765,19 +765,19 @@
         <v>36581</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26005</v>
+        <v>25613</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50299</v>
+        <v>50754</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05321961880212905</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03783265431207563</v>
+        <v>0.03726258702214339</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07317738836342474</v>
+        <v>0.07384005827248455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -786,19 +786,19 @@
         <v>60880</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45696</v>
+        <v>46040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77817</v>
+        <v>77630</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0441697669359804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03315327017833712</v>
+        <v>0.033402493178503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05645780585953619</v>
+        <v>0.05632218373822463</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>666672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>653914</v>
+        <v>655262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>675758</v>
+        <v>675852</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9648327314496888</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9463686828775291</v>
+        <v>0.9483185747844189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9779821983291827</v>
+        <v>0.9781174865169786</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>659</v>
@@ -836,19 +836,19 @@
         <v>650775</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>637057</v>
+        <v>636602</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>661351</v>
+        <v>661743</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.946780381197871</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9268226116365752</v>
+        <v>0.9261599417275155</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9621673456879244</v>
+        <v>0.9627374129778565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1318</v>
@@ -857,19 +857,19 @@
         <v>1317448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1300511</v>
+        <v>1300698</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1332632</v>
+        <v>1332288</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9558302330640196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9435421941404638</v>
+        <v>0.9436778162617754</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9668467298216629</v>
+        <v>0.9665975068214969</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>56030</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43147</v>
+        <v>42158</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72062</v>
+        <v>73605</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0584904041930142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04504153750231648</v>
+        <v>0.04400919895843723</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07522610082946274</v>
+        <v>0.07683604866213933</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -982,19 +982,19 @@
         <v>63226</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48016</v>
+        <v>49161</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82741</v>
+        <v>80596</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06543764523716321</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04969626453664897</v>
+        <v>0.05088068711828259</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08563597856335624</v>
+        <v>0.08341537008489877</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -1003,19 +1003,19 @@
         <v>119256</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98079</v>
+        <v>98595</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143415</v>
+        <v>142751</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06197892192786752</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05097303174348206</v>
+        <v>0.05124118415812939</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07453459410842303</v>
+        <v>0.07418979409143658</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>901913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>885881</v>
+        <v>884338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>914796</v>
+        <v>915785</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9415095958069858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9247738991705371</v>
+        <v>0.9231639513378606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9549584624976835</v>
+        <v>0.9559908010415628</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>850</v>
@@ -1053,19 +1053,19 @@
         <v>902969</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>883454</v>
+        <v>885599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>918179</v>
+        <v>917034</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9345623547628368</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9143640214366437</v>
+        <v>0.916584629915101</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.950303735463351</v>
+        <v>0.9491193128817174</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1692</v>
@@ -1074,19 +1074,19 @@
         <v>1804881</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1780722</v>
+        <v>1781386</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1826058</v>
+        <v>1825542</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9380210780721325</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.925465405891577</v>
+        <v>0.9258102059085634</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.949026968256518</v>
+        <v>0.9487588158418707</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>24327</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15213</v>
+        <v>16062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36636</v>
+        <v>36734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03590566630178858</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02245328565381228</v>
+        <v>0.02370705342807735</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05407394467751179</v>
+        <v>0.05421738836464259</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1199,19 +1199,19 @@
         <v>38276</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26287</v>
+        <v>26946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52004</v>
+        <v>51447</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05603690793015974</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03848585651206107</v>
+        <v>0.03944936966784198</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07613628442209473</v>
+        <v>0.07532081019987943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1220,19 +1220,19 @@
         <v>62602</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48115</v>
+        <v>48144</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81353</v>
+        <v>79636</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04601211129873612</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03536404080406556</v>
+        <v>0.03538502365614291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0597933303261233</v>
+        <v>0.05853168468390876</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>653196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>640887</v>
+        <v>640789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662310</v>
+        <v>661461</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9640943336982114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9459260553224875</v>
+        <v>0.9457826116353576</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9775467143461877</v>
+        <v>0.9762929465719227</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>659</v>
@@ -1270,19 +1270,19 @@
         <v>644765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>631037</v>
+        <v>631594</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>656754</v>
+        <v>656095</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9439630920698403</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9238637155779046</v>
+        <v>0.9246791898001205</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9615141434879387</v>
+        <v>0.9605506303321578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1277</v>
@@ -1291,19 +1291,19 @@
         <v>1297963</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1279212</v>
+        <v>1280929</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1312450</v>
+        <v>1312421</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9539878887012638</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9402066696738772</v>
+        <v>0.9414683153160912</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9646359591959345</v>
+        <v>0.9646149763438571</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>52650</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40209</v>
+        <v>39473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68593</v>
+        <v>68167</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05602919134389329</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04278984426802179</v>
+        <v>0.04200669090749391</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07299547632308123</v>
+        <v>0.07254282865807145</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1416,19 +1416,19 @@
         <v>62978</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49766</v>
+        <v>48272</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79941</v>
+        <v>79498</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06092516713075175</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04814444561617352</v>
+        <v>0.04669889654668775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07733515330152446</v>
+        <v>0.07690710783218825</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -1437,19 +1437,19 @@
         <v>115628</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95416</v>
+        <v>96826</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139617</v>
+        <v>137632</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05859379397729596</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04835163936628852</v>
+        <v>0.0490663812333514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07075022058987621</v>
+        <v>0.06974462151054167</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>887035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>871092</v>
+        <v>871518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>899476</v>
+        <v>900212</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9439708086561067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9270045236769188</v>
+        <v>0.9274571713419286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9572101557319782</v>
+        <v>0.9579933090925061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>932</v>
@@ -1487,19 +1487,19 @@
         <v>970712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>953749</v>
+        <v>954192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>983924</v>
+        <v>985418</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9390748328692482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9226648466984755</v>
+        <v>0.9230928921678118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9518555543838264</v>
+        <v>0.9533011034533123</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1871</v>
@@ -1508,19 +1508,19 @@
         <v>1857747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1833758</v>
+        <v>1835743</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1877959</v>
+        <v>1876549</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9414062060227041</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9292497794101229</v>
+        <v>0.9302553784894579</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9516483606337108</v>
+        <v>0.9509336187666484</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>157307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132449</v>
+        <v>135597</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>182510</v>
+        <v>184140</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04816314961248738</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04055222725945101</v>
+        <v>0.04151607047531067</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05587957405910527</v>
+        <v>0.05637873244903176</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>188</v>
@@ -1633,19 +1633,19 @@
         <v>201060</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>174375</v>
+        <v>173679</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>230564</v>
+        <v>231061</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05965660651832618</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05173895366247423</v>
+        <v>0.05153256432590372</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06841080906021105</v>
+        <v>0.06855843117732992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>334</v>
@@ -1654,19 +1654,19 @@
         <v>358366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>320295</v>
+        <v>317890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>397336</v>
+        <v>393194</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05400007460570384</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04826339422890741</v>
+        <v>0.04790087883121463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05987213360179742</v>
+        <v>0.05924802034955488</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3108815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3083612</v>
+        <v>3081982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3133673</v>
+        <v>3130525</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9518368503875126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9441204259408947</v>
+        <v>0.9436212675509682</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.959447772740549</v>
+        <v>0.9584839295246893</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3100</v>
@@ -1704,19 +1704,19 @@
         <v>3169222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3139718</v>
+        <v>3139221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3195907</v>
+        <v>3196603</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9403433934816738</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9315891909397891</v>
+        <v>0.9314415688226703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9482610463375258</v>
+        <v>0.9484674356740966</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6158</v>
@@ -1725,19 +1725,19 @@
         <v>6278038</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6239068</v>
+        <v>6243210</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6316109</v>
+        <v>6318514</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9459999253942961</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9401278663982022</v>
+        <v>0.9407519796504451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9517366057710924</v>
+        <v>0.9520991211687854</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>32236</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22263</v>
+        <v>21972</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45182</v>
+        <v>44508</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04593894616945374</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03172688275254155</v>
+        <v>0.03131270776057848</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06438828635084293</v>
+        <v>0.06342880649871223</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -2090,19 +2090,19 @@
         <v>28955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20751</v>
+        <v>19552</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41727</v>
+        <v>41492</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04179623317150905</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02995332166518693</v>
+        <v>0.02822344837359771</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06023281416539657</v>
+        <v>0.05989377364260377</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -2111,19 +2111,19 @@
         <v>61191</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46405</v>
+        <v>47284</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79405</v>
+        <v>78709</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04388086670886784</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03327792233642377</v>
+        <v>0.03390847948913994</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05694293593105743</v>
+        <v>0.05644375839886558</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>669469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>656523</v>
+        <v>657197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>679442</v>
+        <v>679733</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9540610538305463</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9356117136491573</v>
+        <v>0.9365711935012878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9682731172474586</v>
+        <v>0.9686872922394215</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>618</v>
@@ -2161,19 +2161,19 @@
         <v>663812</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>651040</v>
+        <v>651275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>672016</v>
+        <v>673215</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.958203766828491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9397671858346035</v>
+        <v>0.9401062263573962</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9700466783348131</v>
+        <v>0.9717765516264023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1259</v>
@@ -2182,19 +2182,19 @@
         <v>1333280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1315066</v>
+        <v>1315762</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1348066</v>
+        <v>1347187</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9561191332911322</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9430570640689425</v>
+        <v>0.9435562416011344</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9667220776635762</v>
+        <v>0.9660915205108601</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>45971</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34216</v>
+        <v>34784</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59231</v>
+        <v>61789</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04530108666333493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03371770021002057</v>
+        <v>0.03427720002901868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05836824081789652</v>
+        <v>0.06088843179872613</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -2307,19 +2307,19 @@
         <v>62547</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48745</v>
+        <v>48310</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79859</v>
+        <v>80415</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06065807421688274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04727313808994835</v>
+        <v>0.04685140707396493</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07744801716834013</v>
+        <v>0.0779865979408772</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -2328,19 +2328,19 @@
         <v>108517</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90229</v>
+        <v>89849</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130638</v>
+        <v>130625</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05304093714481604</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04410208591351</v>
+        <v>0.04391616070052901</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06385272798165417</v>
+        <v>0.06384640480330024</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>968814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>955554</v>
+        <v>952996</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>980569</v>
+        <v>980001</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.954698913336665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9416317591821033</v>
+        <v>0.9391115682012739</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9662822997899795</v>
+        <v>0.9657227999709813</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>881</v>
@@ -2378,19 +2378,19 @@
         <v>968587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>951275</v>
+        <v>950719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>982389</v>
+        <v>982824</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9393419257831173</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9225519828316598</v>
+        <v>0.9220134020591229</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9527268619100517</v>
+        <v>0.9531485929260352</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1770</v>
@@ -2399,19 +2399,19 @@
         <v>1937402</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1915281</v>
+        <v>1915294</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1955690</v>
+        <v>1956070</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9469590628551839</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9361472720183459</v>
+        <v>0.9361535951966998</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9558979140864899</v>
+        <v>0.9560838392994709</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>45972</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33032</v>
+        <v>33763</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61566</v>
+        <v>62440</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0610578093233303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04387172203162776</v>
+        <v>0.04484214994417372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08176943973805244</v>
+        <v>0.08293037009131814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -2524,19 +2524,19 @@
         <v>72238</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55291</v>
+        <v>57214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89349</v>
+        <v>90272</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09344020044052836</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07151958380157208</v>
+        <v>0.07400589189429768</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1155735001072251</v>
+        <v>0.1167673159243294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -2545,19 +2545,19 @@
         <v>118210</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98960</v>
+        <v>93955</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>141404</v>
+        <v>139115</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07746302910458321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.064848576831225</v>
+        <v>0.06156892008693695</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0926622104772046</v>
+        <v>0.09116211678543458</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>706951</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>691357</v>
+        <v>690483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>719891</v>
+        <v>719160</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9389421906766697</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9182305602619475</v>
+        <v>0.9170696299086818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9561282779683722</v>
+        <v>0.9551578500558263</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>637</v>
@@ -2595,19 +2595,19 @@
         <v>700857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>683746</v>
+        <v>682823</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>717804</v>
+        <v>715881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9065597995594716</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8844264998927743</v>
+        <v>0.8832326840756706</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9284804161984278</v>
+        <v>0.9259941081057023</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1281</v>
@@ -2616,19 +2616,19 @@
         <v>1407807</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1384613</v>
+        <v>1386902</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1427057</v>
+        <v>1432062</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9225369708954168</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9073377895227951</v>
+        <v>0.9088378832145654</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.935151423168775</v>
+        <v>0.9384310799130631</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>38172</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28150</v>
+        <v>27467</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50070</v>
+        <v>51320</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04040605575933821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02979803061658541</v>
+        <v>0.029074311977448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05300081711924751</v>
+        <v>0.05432405430324824</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -2741,19 +2741,19 @@
         <v>55959</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42364</v>
+        <v>41284</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70620</v>
+        <v>71030</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05346297066746247</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04047409642868532</v>
+        <v>0.0394423746393404</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06747038934125078</v>
+        <v>0.06786181387773695</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -2762,19 +2762,19 @@
         <v>94131</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75914</v>
+        <v>76627</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112528</v>
+        <v>114259</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04726883512318707</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03812100098089826</v>
+        <v>0.03847905670550228</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05650716235564898</v>
+        <v>0.05737655966132707</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>906535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>894637</v>
+        <v>893387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>916557</v>
+        <v>917240</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9595939442406618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9469991828807526</v>
+        <v>0.9456759456967518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9702019693834146</v>
+        <v>0.970925688022552</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>943</v>
@@ -2812,19 +2812,19 @@
         <v>990727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>976066</v>
+        <v>975656</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1004322</v>
+        <v>1005402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9465370293325376</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.932529610658749</v>
+        <v>0.932138186122263</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9595259035713142</v>
+        <v>0.9605576253606595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1811</v>
@@ -2833,19 +2833,19 @@
         <v>1897261</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1878864</v>
+        <v>1877133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1915478</v>
+        <v>1914765</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.952731164876813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9434928376443502</v>
+        <v>0.942623440338673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9618789990191018</v>
+        <v>0.9615209432944977</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>162350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>137136</v>
+        <v>137018</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188015</v>
+        <v>189349</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04755256521183986</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04016744845961875</v>
+        <v>0.04013265442900916</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05506976343677429</v>
+        <v>0.05546055452612214</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>206</v>
@@ -2958,19 +2958,19 @@
         <v>219699</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>187897</v>
+        <v>193448</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248679</v>
+        <v>254305</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06199730902972931</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05302306005495679</v>
+        <v>0.05458954365165943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07017522778640328</v>
+        <v>0.07176294956434134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>361</v>
@@ -2979,19 +2979,19 @@
         <v>382049</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>350124</v>
+        <v>344937</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>425742</v>
+        <v>420211</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05490942457244943</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05032109394903201</v>
+        <v>0.04957551096586398</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06118918531158693</v>
+        <v>0.06039417955419019</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3251770</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3226105</v>
+        <v>3224771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3276984</v>
+        <v>3277102</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9524474347881602</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9449302365632257</v>
+        <v>0.9445394454738778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9598325515403813</v>
+        <v>0.9598673455709908</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3079</v>
@@ -3029,19 +3029,19 @@
         <v>3323982</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3295002</v>
+        <v>3289376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3355784</v>
+        <v>3350233</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9380026909702707</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9298247722135967</v>
+        <v>0.9282370504356587</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9469769399450433</v>
+        <v>0.9454104563483405</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6121</v>
@@ -3050,19 +3050,19 @@
         <v>6575752</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6532059</v>
+        <v>6537590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6607677</v>
+        <v>6612864</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9450905754275506</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9388108146884129</v>
+        <v>0.9396058204458096</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9496789060509679</v>
+        <v>0.9504244890341359</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>31651</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21313</v>
+        <v>21927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45862</v>
+        <v>46018</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04697768613315833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03163284298811958</v>
+        <v>0.03254460451324209</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06806889406283953</v>
+        <v>0.06830036737619871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -3415,19 +3415,19 @@
         <v>27464</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18335</v>
+        <v>19181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39295</v>
+        <v>38326</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04086899150269332</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02728391990743602</v>
+        <v>0.02854384474124479</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05847532288078943</v>
+        <v>0.05703362604134819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -3436,19 +3436,19 @@
         <v>59115</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45107</v>
+        <v>44906</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77714</v>
+        <v>76004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0439273326205142</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0335182653358299</v>
+        <v>0.03336850907844371</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05774755157111824</v>
+        <v>0.05647727222231377</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>642103</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>627892</v>
+        <v>627736</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>652441</v>
+        <v>651827</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9530223138668417</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.93193110593716</v>
+        <v>0.9316996326238014</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9683671570118803</v>
+        <v>0.9674553954867581</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>637</v>
@@ -3486,19 +3486,19 @@
         <v>644530</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>632699</v>
+        <v>633668</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>653659</v>
+        <v>652813</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9591310084973067</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9415246771192105</v>
+        <v>0.9429663739586516</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9727160800925639</v>
+        <v>0.9714561552587552</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1261</v>
@@ -3507,19 +3507,19 @@
         <v>1286633</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1268034</v>
+        <v>1269744</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1300641</v>
+        <v>1300842</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9560726673794858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9422524484288817</v>
+        <v>0.9435227277776863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.96648173466417</v>
+        <v>0.9666314909215565</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>36943</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25051</v>
+        <v>25879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51299</v>
+        <v>51066</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03629693139343074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02461235564466709</v>
+        <v>0.02542598987719066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05040137005059021</v>
+        <v>0.05017216269866719</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -3632,19 +3632,19 @@
         <v>41779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31185</v>
+        <v>31112</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55763</v>
+        <v>57892</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04022336257168333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03002439553911761</v>
+        <v>0.02995389115428982</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05368724365810772</v>
+        <v>0.05573671274593423</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -3653,19 +3653,19 @@
         <v>78722</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61517</v>
+        <v>61548</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97819</v>
+        <v>98198</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03828005701164067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02991360663773988</v>
+        <v>0.02992895934289404</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04756631863911447</v>
+        <v>0.04775037689492315</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>980868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>966512</v>
+        <v>966745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>992760</v>
+        <v>991932</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9637030686065693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9495986299494097</v>
+        <v>0.9498278373013325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9753876443553329</v>
+        <v>0.9745740101228093</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>933</v>
@@ -3703,19 +3703,19 @@
         <v>996888</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>982904</v>
+        <v>980775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1007482</v>
+        <v>1007555</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9597766374283166</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9463127563418923</v>
+        <v>0.9442632872540658</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9699756044608825</v>
+        <v>0.9700461088457102</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1848</v>
@@ -3724,19 +3724,19 @@
         <v>1977756</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1958659</v>
+        <v>1958280</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1994961</v>
+        <v>1994930</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9617199429883594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9524336813608855</v>
+        <v>0.9522496231050768</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9700863933622601</v>
+        <v>0.970071040657106</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>45410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33170</v>
+        <v>32045</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62100</v>
+        <v>61338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06017695405061917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04395709035578309</v>
+        <v>0.04246547480897296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08229441490198947</v>
+        <v>0.08128406199798467</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -3849,19 +3849,19 @@
         <v>50681</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37325</v>
+        <v>37690</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65679</v>
+        <v>66109</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06490701293149903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04780195457125733</v>
+        <v>0.04826920726120557</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08411532012626124</v>
+        <v>0.08466546824275344</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -3870,19 +3870,19 @@
         <v>96091</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76518</v>
+        <v>76081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115972</v>
+        <v>115399</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06258235917399035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04983493655203778</v>
+        <v>0.04955057102240956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07553074132890961</v>
+        <v>0.07515756182726455</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>709198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>692508</v>
+        <v>693270</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>721438</v>
+        <v>722563</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9398230459493808</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9177055850980105</v>
+        <v>0.918715938002015</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9560429096442168</v>
+        <v>0.9575345251910259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>684</v>
@@ -3920,19 +3920,19 @@
         <v>730140</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>715142</v>
+        <v>714712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>743496</v>
+        <v>743131</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.935092987068501</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9158846798737388</v>
+        <v>0.9153345317572463</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9521980454287426</v>
+        <v>0.9517307927387944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1337</v>
@@ -3941,19 +3941,19 @@
         <v>1439337</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1419456</v>
+        <v>1420029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1458910</v>
+        <v>1459347</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9374176408260096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9244692586710903</v>
+        <v>0.9248424381727355</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9501650634479621</v>
+        <v>0.9504494289775903</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>31119</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21181</v>
+        <v>22058</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42444</v>
+        <v>43507</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03350303387373398</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02280442098463355</v>
+        <v>0.02374833670691804</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0456957572325083</v>
+        <v>0.04684081767679927</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -4066,19 +4066,19 @@
         <v>40392</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29250</v>
+        <v>30110</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55547</v>
+        <v>55602</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03903579047616052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02826817491708425</v>
+        <v>0.02909975521064191</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05368294158415098</v>
+        <v>0.05373601197454898</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -4087,19 +4087,19 @@
         <v>71510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57427</v>
+        <v>54824</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92305</v>
+        <v>88124</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03641860704798153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02924654245415135</v>
+        <v>0.02792069597047922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04700915349201746</v>
+        <v>0.04487986751267644</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>897713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>886388</v>
+        <v>885325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>907651</v>
+        <v>906774</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.966496966126266</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9543042427674917</v>
+        <v>0.9531591823231997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9771955790153665</v>
+        <v>0.9762516632930819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>912</v>
@@ -4137,19 +4137,19 @@
         <v>994338</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>979183</v>
+        <v>979128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1005480</v>
+        <v>1004620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9609642095238394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.946317058415849</v>
+        <v>0.946263988025451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9717318250829158</v>
+        <v>0.9709002447893581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1803</v>
@@ -4158,19 +4158,19 @@
         <v>1892052</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1871257</v>
+        <v>1875438</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1906135</v>
+        <v>1908738</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9635813929520185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9529908465079824</v>
+        <v>0.9551201324873237</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9707534575458486</v>
+        <v>0.9720793040295209</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>145123</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>124673</v>
+        <v>122463</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172077</v>
+        <v>169352</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04299949685167812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03694020866890367</v>
+        <v>0.03628535554080529</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05098573309205656</v>
+        <v>0.05017824328809463</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -4283,19 +4283,19 @@
         <v>160315</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137019</v>
+        <v>138272</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>188711</v>
+        <v>187796</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04546370200966916</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.038857200067521</v>
+        <v>0.0392127204652896</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0535166411330987</v>
+        <v>0.05325709353075194</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>285</v>
@@ -4304,19 +4304,19 @@
         <v>305438</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>273672</v>
+        <v>270316</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>343029</v>
+        <v>341497</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0442585949944832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03965567644738178</v>
+        <v>0.03916936580052433</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04970562566045438</v>
+        <v>0.0494836400468465</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3229881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3202927</v>
+        <v>3205652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3250331</v>
+        <v>3252541</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9570005031483219</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9490142669079434</v>
+        <v>0.9498217567119054</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9630597913310963</v>
+        <v>0.9637146444591946</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3166</v>
@@ -4354,19 +4354,19 @@
         <v>3365896</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3337500</v>
+        <v>3338415</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3389192</v>
+        <v>3387939</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9545362979903308</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9464833588669013</v>
+        <v>0.9467429064692477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.961142799932479</v>
+        <v>0.9607872795347103</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6249</v>
@@ -4375,19 +4375,19 @@
         <v>6595778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6558187</v>
+        <v>6559719</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6627544</v>
+        <v>6630900</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9557414050055169</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9502943743395456</v>
+        <v>0.9505163599531535</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9603443235526182</v>
+        <v>0.9608306341994756</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>10922</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4505</v>
+        <v>4647</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27245</v>
+        <v>26293</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0159482596743738</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006577779828683423</v>
+        <v>0.006784739742058671</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03978128507308248</v>
+        <v>0.0383920758334846</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -4740,19 +4740,19 @@
         <v>13700</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8217</v>
+        <v>8075</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22207</v>
+        <v>21985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01879103395308793</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01127074211062896</v>
+        <v>0.01107542384269431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03046006871466084</v>
+        <v>0.03015572456836057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -4761,19 +4761,19 @@
         <v>24622</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15915</v>
+        <v>15349</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41113</v>
+        <v>39780</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01741407952454604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01125614918520114</v>
+        <v>0.01085557098419749</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02907738067538581</v>
+        <v>0.02813431158964569</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>673941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>657618</v>
+        <v>658570</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>680358</v>
+        <v>680216</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9840517403256261</v>
+        <v>0.9840517403256264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9602187149269208</v>
+        <v>0.9616079241665165</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9934222201713165</v>
+        <v>0.9932152602579414</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1216</v>
@@ -4811,19 +4811,19 @@
         <v>715363</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>706856</v>
+        <v>707078</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>720846</v>
+        <v>720988</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.981208966046912</v>
+        <v>0.9812089660469121</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9695399312853397</v>
+        <v>0.9698442754316394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9887292578893712</v>
+        <v>0.9889245761573056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1933</v>
@@ -4832,19 +4832,19 @@
         <v>1389304</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1372813</v>
+        <v>1374146</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1398011</v>
+        <v>1398577</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9825859204754541</v>
+        <v>0.982585920475454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9709226193246145</v>
+        <v>0.9718656884103541</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9887438508147989</v>
+        <v>0.9891444290158025</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>27380</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18171</v>
+        <v>18684</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40527</v>
+        <v>41126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02634629214285488</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01748502257322739</v>
+        <v>0.01797824388262578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03899683740441074</v>
+        <v>0.03957371651939919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -4957,19 +4957,19 @@
         <v>25355</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17410</v>
+        <v>17521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35271</v>
+        <v>35201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02396094425447665</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01645334074633427</v>
+        <v>0.01655732539192707</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03333178264946703</v>
+        <v>0.03326553617970878</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -4978,19 +4978,19 @@
         <v>52735</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40650</v>
+        <v>39372</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69537</v>
+        <v>67762</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02514284759773527</v>
+        <v>0.02514284759773528</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01938088219474295</v>
+        <v>0.01877162457016122</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03315371539597436</v>
+        <v>0.0323076838531776</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1011853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>998706</v>
+        <v>998107</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1021062</v>
+        <v>1020549</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.973653707857145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.961003162595589</v>
+        <v>0.960426283480601</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9825149774267726</v>
+        <v>0.9820217561173743</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1466</v>
@@ -5028,19 +5028,19 @@
         <v>1032819</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1022903</v>
+        <v>1022973</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1040764</v>
+        <v>1040653</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9760390557455234</v>
+        <v>0.9760390557455232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9666682173505329</v>
+        <v>0.9667344638202913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9835466592536657</v>
+        <v>0.9834426746080729</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2399</v>
@@ -5049,19 +5049,19 @@
         <v>2044672</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2027870</v>
+        <v>2029645</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2056757</v>
+        <v>2058035</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9748571524022648</v>
+        <v>0.9748571524022647</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9668462846040253</v>
+        <v>0.9676923161468227</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9806191178052568</v>
+        <v>0.9812283754298388</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>28298</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19032</v>
+        <v>17968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41643</v>
+        <v>40548</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03542446960627237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02382493137756295</v>
+        <v>0.02249280386247679</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05212899142093941</v>
+        <v>0.05075887814135337</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -5174,19 +5174,19 @@
         <v>42412</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28637</v>
+        <v>29272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57894</v>
+        <v>59217</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05277074956829417</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03563094175075286</v>
+        <v>0.03642143126180346</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07203305868833816</v>
+        <v>0.07367906114196214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -5195,19 +5195,19 @@
         <v>70711</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55284</v>
+        <v>56076</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90837</v>
+        <v>92439</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04412398597475604</v>
+        <v>0.04412398597475603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03449772466300177</v>
+        <v>0.03499209514689887</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05668267480641389</v>
+        <v>0.05768279967401018</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>770538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>757193</v>
+        <v>758288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>779804</v>
+        <v>780868</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9645755303937277</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9478710085790599</v>
+        <v>0.9492411218586463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9761750686224366</v>
+        <v>0.9775071961375232</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>994</v>
@@ -5245,19 +5245,19 @@
         <v>761298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>745816</v>
+        <v>744493</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>775073</v>
+        <v>774438</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9472292504317057</v>
+        <v>0.9472292504317058</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.927966941311662</v>
+        <v>0.9263209388580385</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9643690582492472</v>
+        <v>0.9635785687381968</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1643</v>
@@ -5266,19 +5266,19 @@
         <v>1531835</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1511709</v>
+        <v>1510107</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1547262</v>
+        <v>1546470</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.955876014025244</v>
+        <v>0.9558760140252439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.943317325193586</v>
+        <v>0.94231720032599</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9655022753369982</v>
+        <v>0.9650079048531012</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>29764</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20470</v>
+        <v>20537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43429</v>
+        <v>44653</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03035162313119438</v>
+        <v>0.03035162313119439</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02087465698047048</v>
+        <v>0.02094264141858032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04428598820422101</v>
+        <v>0.04553423914741529</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -5391,19 +5391,19 @@
         <v>39144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29188</v>
+        <v>29518</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51421</v>
+        <v>52864</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03530280526072879</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02632445185691402</v>
+        <v>0.02662130968221232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04637526825296891</v>
+        <v>0.04767727816051684</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -5412,19 +5412,19 @@
         <v>68908</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54315</v>
+        <v>54535</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87491</v>
+        <v>88720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03297906054965424</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02599511246865347</v>
+        <v>0.02610047012935912</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04187308603174798</v>
+        <v>0.04246107289301417</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>950874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>937209</v>
+        <v>935985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>960168</v>
+        <v>960101</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9696483768688056</v>
+        <v>0.9696483768688057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.955714011795779</v>
+        <v>0.9544657608525846</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9791253430195295</v>
+        <v>0.9790573585814194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1500</v>
@@ -5462,19 +5462,19 @@
         <v>1069654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1057377</v>
+        <v>1055934</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1079610</v>
+        <v>1079280</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9646971947392711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.953624731747032</v>
+        <v>0.9523227218394834</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9736755481430861</v>
+        <v>0.9733786903177879</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2466</v>
@@ -5483,19 +5483,19 @@
         <v>2020528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2001945</v>
+        <v>2000716</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2035121</v>
+        <v>2034901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9670209394503456</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9581269139682519</v>
+        <v>0.9575389271069861</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9740048875313465</v>
+        <v>0.9738995298706418</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>96365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78253</v>
+        <v>76510</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121449</v>
+        <v>120594</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02750468997002447</v>
+        <v>0.02750468997002446</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02233523904975048</v>
+        <v>0.02183776636509726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03466438735374289</v>
+        <v>0.03442042464479673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -5608,19 +5608,19 @@
         <v>120611</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99280</v>
+        <v>102561</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143275</v>
+        <v>145399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0325997497704075</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0268343685801086</v>
+        <v>0.02772099117759414</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03872562781317904</v>
+        <v>0.03929960356799132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>222</v>
@@ -5629,19 +5629,19 @@
         <v>216975</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>188773</v>
+        <v>187419</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250274</v>
+        <v>253072</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03012159912093358</v>
+        <v>0.03012159912093359</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02620641083927847</v>
+        <v>0.02601844872632015</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03474425246465321</v>
+        <v>0.03513277695113132</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3407205</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3382121</v>
+        <v>3382976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3425317</v>
+        <v>3427060</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9724953100299756</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.965335612646257</v>
+        <v>0.9655795753552036</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9776647609502496</v>
+        <v>0.9781622336349031</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5176</v>
@@ -5679,19 +5679,19 @@
         <v>3579134</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3556470</v>
+        <v>3554346</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3600465</v>
+        <v>3597184</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9674002502295925</v>
+        <v>0.9674002502295924</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.961274372186821</v>
+        <v>0.9607003964320087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9731656314198912</v>
+        <v>0.9722790088224058</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8441</v>
@@ -5700,19 +5700,19 @@
         <v>6986341</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6953042</v>
+        <v>6950244</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7014543</v>
+        <v>7015897</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9698784008790664</v>
+        <v>0.9698784008790665</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9652557475353469</v>
+        <v>0.9648672230488688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.973793589160722</v>
+        <v>0.9739815512736799</v>
       </c>
     </row>
     <row r="18">
